--- a/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
+++ b/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>11.20949586954128</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.342876234486386</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1274131871550484</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.1829713851493645</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.163980622391977</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
+++ b/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>12.1358662790165</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.4828312689463684</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2158793921891626</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.519189168748834</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.856722983783609</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
+++ b/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
@@ -552,19 +552,19 @@
         <v>0.1068493150684932</v>
       </c>
       <c r="D3" t="n">
-        <v>117650.9528185409</v>
+        <v>117638.3569498936</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0638901190336555</v>
+        <v>-0.06453857968723657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.196065117622013</v>
+        <v>0.199131106982574</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.055975520432115</v>
+        <v>-1.193211556734104</v>
       </c>
       <c r="H3" t="n">
-        <v>12.1358662790165</v>
+        <v>13.53117379388421</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4828312689463684</v>
@@ -628,19 +628,19 @@
         <v>0.2794520547945206</v>
       </c>
       <c r="D5" t="n">
-        <v>119152.3937997812</v>
+        <v>119152.4858036125</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0554080500061206</v>
+        <v>-0.05549820509275658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2366272030907937</v>
+        <v>0.2376122136663193</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.122636802484903</v>
+        <v>-1.175633438585491</v>
       </c>
       <c r="H5" t="n">
-        <v>11.78744226034815</v>
+        <v>12.45594312940294</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -662,19 +662,19 @@
         <v>0.3561643835616438</v>
       </c>
       <c r="D6" t="n">
-        <v>119987.3974955232</v>
+        <v>119899.3395965008</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05024239280391921</v>
+        <v>-0.05393258646426717</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2214895552664976</v>
+        <v>0.2366695189903922</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.404002225097302</v>
+        <v>-0.8389677413715874</v>
       </c>
       <c r="H6" t="n">
-        <v>6.072450995013762</v>
+        <v>8.972387853633752</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4328767123287671</v>
       </c>
       <c r="D7" t="n">
-        <v>120595.4707827285</v>
+        <v>120592.2997283303</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05779532182682012</v>
+        <v>-0.05798408101535789</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2600079874084358</v>
+        <v>0.2611744526057739</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.158188100246238</v>
+        <v>-1.199080725176566</v>
       </c>
       <c r="H7" t="n">
-        <v>10.26204517476468</v>
+        <v>10.69309257821405</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.8547945205479452</v>
       </c>
       <c r="D8" t="n">
-        <v>122072.0065774657</v>
+        <v>122071.8969801087</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06352438739578932</v>
+        <v>-0.06355390454484852</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2084952787165373</v>
+        <v>0.20867344261672</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.713075147785134</v>
+        <v>-0.7201054825622363</v>
       </c>
       <c r="H8" t="n">
-        <v>6.556091612722469</v>
+        <v>6.613230798559294</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9315068493150684</v>
       </c>
       <c r="D9" t="n">
-        <v>123558.9935306044</v>
+        <v>123539.4464871183</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.09605908281777545</v>
+        <v>-0.09842058364807636</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3274673285087744</v>
+        <v>0.3414427309120105</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.36194645678067</v>
+        <v>-1.594008665007883</v>
       </c>
       <c r="H9" t="n">
-        <v>8.124446994189091</v>
+        <v>9.835577155593709</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.180821917808219</v>
       </c>
       <c r="D10" t="n">
-        <v>125107.5643789662</v>
+        <v>125108.7987202931</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1326594068974282</v>
+        <v>-0.1336230559611806</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4434167874760356</v>
+        <v>0.4506868660390958</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.865744080098236</v>
+        <v>-1.949595690875405</v>
       </c>
       <c r="H10" t="n">
-        <v>9.154124323186814</v>
+        <v>9.842349855930896</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.427397260273973</v>
       </c>
       <c r="D11" t="n">
-        <v>132522.4438310261</v>
+        <v>127188.1808784983</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0781536407780607</v>
+        <v>-0.2293438851710582</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3715154523584736</v>
+        <v>0.9551295382658115</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.880641371267485</v>
+        <v>-3.08624083731187</v>
       </c>
       <c r="H11" t="n">
-        <v>9.127904237917498</v>
+        <v>16.36436107875861</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1070,19 +1070,19 @@
         <v>0.03013698630136986</v>
       </c>
       <c r="D17" t="n">
-        <v>117659.5007374189</v>
+        <v>117673.6121162518</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0779395994451783</v>
+        <v>-0.07670429875435213</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1863164227476523</v>
+        <v>0.1780960075230125</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.235516524855931</v>
+        <v>-0.7776599544290737</v>
       </c>
       <c r="H17" t="n">
-        <v>13.48679366588918</v>
+        <v>8.753653927209092</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1972680020398494</v>
@@ -1196,19 +1196,19 @@
         <v>0.08767123287671233</v>
       </c>
       <c r="D20" t="n">
-        <v>117699.2213573592</v>
+        <v>117888.3684726979</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.06526290147806398</v>
+        <v>-0.05683847252392848</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2022563048639124</v>
+        <v>0.1754336564964335</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.02008468146777</v>
+        <v>-0.124369869136962</v>
       </c>
       <c r="H20" t="n">
-        <v>11.20949586954128</v>
+        <v>5.653229328298232</v>
       </c>
       <c r="I20" t="n">
         <v>-0.342876234486386</v>

--- a/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
+++ b/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>11.33550450543892</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.6921205813553138</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2660545082537246</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.2339943674980597</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.354084289814547</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
+++ b/data_processed/20250721/BTCUSDQMOMENT_20250721.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>12.45594312940294</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.7382099015725235</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4519257258104675</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1940638174351965</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.588047259604172</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
